--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6114698\Documents\Pramod\Appreciate_app\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7B5BD0-5C20-4BE1-A25C-2F5A69038E8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DAA4F2-8B83-4BFF-93CA-0DDAFB83B16B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8D8446D1-7846-425E-98D8-B2ABAE3DD808}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>User</t>
   </si>
@@ -63,114 +63,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>Ajay Anantha Rao</t>
-  </si>
-  <si>
-    <t>ajay.anantharao@thomsonreuters.com</t>
-  </si>
-  <si>
-    <t>U0154799</t>
-  </si>
-  <si>
-    <t>Aishwarya G</t>
-  </si>
-  <si>
-    <t>aishwarya.g.g@thomsonreuters.com</t>
-  </si>
-  <si>
-    <t>U6033119</t>
-  </si>
-  <si>
-    <t>Anamika Joshi</t>
-  </si>
-  <si>
-    <t>anamika.joshi@thomsonreuters.com</t>
-  </si>
-  <si>
-    <t>U6071249</t>
-  </si>
-  <si>
-    <t>Vaishnavi P</t>
-  </si>
-  <si>
-    <t>vaishnavi.p@thomsonreuters.com</t>
-  </si>
-  <si>
-    <t>U6070199</t>
-  </si>
-  <si>
-    <t>Suganya P</t>
-  </si>
-  <si>
-    <t>suganya.p@thomsonreuters.com</t>
-  </si>
-  <si>
-    <t>U0141429</t>
-  </si>
-  <si>
-    <t>Garima Rai</t>
-  </si>
-  <si>
-    <t>garima.rai@thomsonreuters.com</t>
-  </si>
-  <si>
-    <t>U0141439</t>
-  </si>
-  <si>
-    <t>Arul Raj</t>
-  </si>
-  <si>
-    <t>arul.raj@thomsonreuters.com</t>
-  </si>
-  <si>
-    <t>U0119764</t>
-  </si>
-  <si>
-    <t>Hemalatha Raj</t>
-  </si>
-  <si>
-    <t>hemalatha.mohanraj@thomsonreuters.com</t>
-  </si>
-  <si>
-    <t>U6013784</t>
-  </si>
-  <si>
-    <t>Vignesh S A</t>
-  </si>
-  <si>
-    <t>vignesh.sa@thomsonreuters.com</t>
-  </si>
-  <si>
-    <t>U6023403</t>
-  </si>
-  <si>
-    <t>Vinodhini S</t>
-  </si>
-  <si>
-    <t>vinodhini.s@thomsonreuters.com</t>
-  </si>
-  <si>
-    <t>U6046803</t>
-  </si>
-  <si>
-    <t>Monika Singh</t>
-  </si>
-  <si>
-    <t>monika.singh@thomsonreuters.com</t>
-  </si>
-  <si>
-    <t>U6070965</t>
-  </si>
-  <si>
-    <t>Ashwini TA</t>
-  </si>
-  <si>
-    <t>ashwini.ta@thomsonreuters.com</t>
-  </si>
-  <si>
-    <t>U0160849</t>
-  </si>
-  <si>
     <t>Pramod HS</t>
   </si>
   <si>
@@ -178,6 +70,12 @@
   </si>
   <si>
     <t>U6114698</t>
+  </si>
+  <si>
+    <t>employee_role</t>
+  </si>
+  <si>
+    <t>Associate Web Developer</t>
   </si>
 </sst>
 </file>
@@ -540,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E9B505-49C0-46EC-BC5E-6B99267B208D}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B14"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -556,7 +454,7 @@
     <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -578,24 +476,27 @@
       <c r="G1" t="s">
         <v>1</v>
       </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D6" si="0">LEFT(A2,FIND(" ",A2)-1)</f>
-        <v>Ajay</v>
+        <f t="shared" ref="D2" si="0">LEFT(A2,FIND(" ",A2)-1)</f>
+        <v>Pramod</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E6" si="1">RIGHT(A2,LEN(A2)-FIND(" ",A2))</f>
-        <v>Anantha Rao</v>
+        <f t="shared" ref="E2" si="1">RIGHT(A2,LEN(A2)-FIND(" ",A2))</f>
+        <v>HS</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
@@ -603,311 +504,14 @@
       <c r="G2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" si="0"/>
-        <v>Aishwarya</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" si="1"/>
-        <v>G</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>Anamika</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="1"/>
-        <v>Joshi</v>
-      </c>
-      <c r="F4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>Vaishnavi</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
-      </c>
-      <c r="F5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>Suganya</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
-      </c>
-      <c r="F6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" ref="D7:D14" si="2">LEFT(A7,FIND(" ",A7)-1)</f>
-        <v>Garima</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" ref="E7:E14" si="3">RIGHT(A7,LEN(A7)-FIND(" ",A7))</f>
-        <v>Rai</v>
-      </c>
-      <c r="F7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="2"/>
-        <v>Arul</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="3"/>
-        <v>Raj</v>
-      </c>
-      <c r="F8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="2"/>
-        <v>Hemalatha</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="3"/>
-        <v>Raj</v>
-      </c>
-      <c r="F9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="2"/>
-        <v>Vignesh</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="3"/>
-        <v>S A</v>
-      </c>
-      <c r="F10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="2"/>
-        <v>Vinodhini</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="3"/>
-        <v>S</v>
-      </c>
-      <c r="F11" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="2"/>
-        <v>Monika</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="3"/>
-        <v>Singh</v>
-      </c>
-      <c r="F12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="2"/>
-        <v>Ashwini</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="3"/>
-        <v>TA</v>
-      </c>
-      <c r="F13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="2"/>
-        <v>Pramod</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="3"/>
-        <v>HS</v>
-      </c>
-      <c r="F14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{ECD7A20A-72E2-4B7B-98A7-95F0B6E0019E}"/>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" xr:uid="{B1F0769C-8002-4F62-95C4-2B38D8454B5F}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{71B99F14-A2A2-4712-B7C7-8CA171E8ED46}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
